--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/2025/TIMES_TUe/Model_MSc_SELECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BC23A0-B333-43CA-8255-ACAF0832F2D4}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D750FF-C87A-4529-B17F-8DB5DE32A6CB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3658,11 +3658,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="42" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="184" fontId="4" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="42" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1262">
@@ -6854,7 +6854,7 @@
   <dimension ref="B1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6914,45 +6914,45 @@
       <c r="B7" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
       <c r="B8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="40">
-        <f>C12*3.6</f>
-        <v>393.80400000000003</v>
-      </c>
-      <c r="D8" s="40">
+      <c r="C8" s="39">
+        <f>C12*3</f>
+        <v>328.17</v>
+      </c>
+      <c r="D8" s="39">
         <f t="shared" ref="D8:I8" si="0">D12*3.6</f>
         <v>442.11863013698968</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <f t="shared" si="0"/>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="39">
         <f t="shared" si="0"/>
         <v>698.03424657534129</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="39">
         <f t="shared" si="0"/>
         <v>828</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="39">
         <f>H12*3.6</f>
         <v>953.94986301369943</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <f t="shared" si="0"/>
         <v>1081.9076712328817</v>
       </c>
@@ -7059,6 +7059,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7202,12 +7208,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7218,6 +7218,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7235,22 +7251,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>

--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D750FF-C87A-4529-B17F-8DB5DE32A6CB}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCD653A-980A-4859-AFA1-16D96674B400}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -6425,7 +6425,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6602,7 +6602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -6853,7 +6853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6929,8 +6929,8 @@
         <v>63</v>
       </c>
       <c r="C8" s="39">
-        <f>C12*3</f>
-        <v>328.17</v>
+        <f>C12*3.6</f>
+        <v>393.80400000000003</v>
       </c>
       <c r="D8" s="39">
         <f t="shared" ref="D8:I8" si="0">D12*3.6</f>
@@ -7059,12 +7059,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7208,16 +7217,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7233,7 +7241,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7249,12 +7257,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BCD653A-980A-4859-AFA1-16D96674B400}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA99F39C-03B9-4366-9B21-C145874A3CEB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -602,7 +602,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -794,6 +794,24 @@
   </si>
   <si>
     <t>ELC_FIN</t>
+  </si>
+  <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
+    <t>DMD</t>
   </si>
 </sst>
 </file>
@@ -6426,7 +6444,7 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6531,8 +6549,12 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" s="34"/>
-      <c r="C7" s="35"/>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="D7" s="35" t="s">
         <v>62</v>
       </c>
@@ -6548,8 +6570,12 @@
       <c r="J7" s="34"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" s="34"/>
-      <c r="C8" s="35"/>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>65</v>
+      </c>
       <c r="D8" s="35" t="s">
         <v>61</v>
       </c>
@@ -6564,8 +6590,12 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="16" t="s">
         <v>19</v>
       </c>
@@ -6603,7 +6633,7 @@
   <dimension ref="B2:J7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6714,11 +6744,15 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
       <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14" t="s">
+        <v>68</v>
+      </c>
       <c r="E7" s="16" t="s">
         <v>39</v>
       </c>
@@ -6745,7 +6779,7 @@
   <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -6819,11 +6853,19 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="C7" s="13" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
       </c>
+      <c r="D7" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="20">
         <v>1</v>
       </c>
@@ -6832,13 +6874,9 @@
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="E10" s="38"/>
+      <c r="D8" s="38" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="2:7">
       <c r="D16" s="18"/>
@@ -6853,7 +6891,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7059,18 +7097,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7218,14 +7256,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7237,6 +7267,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/f_nardella_student_tue_nl/Documents/INNO Energy/UPC Energy Policy/TIMES_ses/MSc_SELECT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{2685D3B1-EDCC-4314-B0BD-774C3625BEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA99F39C-03B9-4366-9B21-C145874A3CEB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C412ADA9-494A-482B-9257-65C644F6E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="901" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
@@ -360,37 +360,11 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Maciej Raczyński</author>
     <author>Maurizio Gargiulo</author>
     <author>Amit Kanudia</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="238"/>
-          </rPr>
-          <t xml:space="preserve">Dozwolone Zbiory Procesów
-ELE (Elektrownia)
-CHP (Elektrociepłownia)
-STGTSS (Elektrownia Szczyt-Pompowa)
-PRE (Dowolny Proces/Technologia)
-DMD (Proces Popytu)
-IMP (Import)
-EXP (Eksport)
-MIN (Proces Wydobycia/Kopalnia)
-RNW (Technologia Odnawialna*)
-HPL (Ciepłownia)
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -483,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="I5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -573,6 +547,239 @@
         </r>
       </text>
     </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{F4B53DF6-885F-4626-ACE2-D1AC452333C0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Combined Heat and Power)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>STGTSS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Import)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Renewable Technology)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">HPL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -602,7 +809,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>Define Commodities</t>
   </si>
@@ -787,12 +994,6 @@
     <t>TWh</t>
   </si>
   <si>
-    <t xml:space="preserve"> Electricity grid non-RES </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity grid RES </t>
-  </si>
-  <si>
     <t>ELC_FIN</t>
   </si>
   <si>
@@ -812,6 +1013,21 @@
   </si>
   <si>
     <t>DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid RES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid non-RES </t>
+  </si>
+  <si>
+    <t>Supportive calculations below:</t>
+  </si>
+  <si>
+    <t>Legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENTSO data points</t>
   </si>
 </sst>
 </file>
@@ -842,9 +1058,9 @@
     <numFmt numFmtId="182" formatCode="yyyy"/>
     <numFmt numFmtId="183" formatCode="_-* ###0.00_-;\(###0.00\);_-* &quot;–&quot;_-;_-@_-"/>
     <numFmt numFmtId="184" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="185" formatCode="0.000"/>
+    <numFmt numFmtId="186" formatCode="0.0"/>
   </numFmts>
-  <fonts count="113">
+  <fonts count="112">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -855,6 +1071,11 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -1471,20 +1692,6 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -1815,12 +2022,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1833,7 +2034,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,302 +2278,178 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1262">
+  <cellStyleXfs count="1263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="55" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2401,416 +2484,542 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="56" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="101" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="4" fillId="20" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="100" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="175" fontId="5" fillId="20" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="56" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="79" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="57" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="80" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="81" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="79" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="80" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="177" fontId="79" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="80" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="57" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="58" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="59" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="102" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="59" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="79" fillId="0" borderId="0">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="101" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="60" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="173" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="172" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="80" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="38" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="38" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -2818,638 +3027,623 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="72" fillId="0" borderId="0" applyBorder="0">
+    <xf numFmtId="10" fontId="6" fillId="24" borderId="10" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="0" applyBorder="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="72" fillId="0" borderId="11">
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="11">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="40" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="61" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="105" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="65" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="86" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="40" fontId="75" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="62" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="104" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="66" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="87" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="67" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="89" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="90" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="89" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="89" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="89" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="92" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="93" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="93" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="91" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="94" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="55" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="73" fillId="26" borderId="10"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="66" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="88" fillId="25" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="89" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="88" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="28" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="88" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="3" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="9" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="17" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="11" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="15" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="19" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="18" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="30" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="10" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="88" fillId="31" borderId="15" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="91" fillId="33" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="32" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="29" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="92" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="24" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="92" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="90" fillId="34" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="29" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="93" fillId="36" borderId="0" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="54" fillId="32" borderId="14" applyNumberFormat="0" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="72" fillId="26" borderId="10"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="99" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="16" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="182" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="17" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3457,233 +3651,264 @@
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="37" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="3" fontId="95" fillId="0" borderId="9" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="75" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="183" fontId="96" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="3" fontId="96" fillId="0" borderId="9" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="76" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="54" fillId="27" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="174" fontId="75" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="97" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="4" fontId="72" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="4" fontId="73" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="110" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="800"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="800" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="800"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="800" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="3" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="184" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="184" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="184" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="43" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="42" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="42" fillId="44" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="3" fillId="28" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="184" fontId="3" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="4" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="18" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="98" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="42" fillId="44" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="1243"/>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="184" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="184" fontId="42" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="1244"/>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="184" fontId="0" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="42" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="39" borderId="18" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="19" xfId="791" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="44" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="43" fillId="46" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="5" fillId="39" borderId="19" xfId="791" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="43" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="186" fontId="0" fillId="45" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="47" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1262">
+  <cellStyles count="1263">
     <cellStyle name="20 % - Akzent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20 % - Akzent2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="20 % - Akzent3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -4210,7 +4435,7 @@
     <cellStyle name="DateTime" xfId="524" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
     <cellStyle name="Dezimal [0] 2" xfId="525" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
     <cellStyle name="Dezimal [0] 2 2" xfId="526" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
-    <cellStyle name="Dezimal [0] 2 3" xfId="1244" xr:uid="{F0068CCC-E9D0-4F09-BE01-035EAB32FD50}"/>
+    <cellStyle name="Dezimal [0] 2 3" xfId="1245" xr:uid="{F0068CCC-E9D0-4F09-BE01-035EAB32FD50}"/>
     <cellStyle name="Dezimal 2" xfId="527" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
     <cellStyle name="Dezimal 3" xfId="528" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
     <cellStyle name="Dezimal 3 2" xfId="529" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
@@ -4305,8 +4530,8 @@
     <cellStyle name="Hiperłącze 2" xfId="618" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
     <cellStyle name="Hiperłącze 2 2" xfId="619" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
     <cellStyle name="Hiperłącze 2 3" xfId="620" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
-    <cellStyle name="Hiperłącze 3" xfId="1260" xr:uid="{14B20223-B92A-4CC4-AAA1-1898DEBCF58E}"/>
-    <cellStyle name="Hyperlink" xfId="1243" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
+    <cellStyle name="Hiperłącze 3" xfId="1261" xr:uid="{14B20223-B92A-4CC4-AAA1-1898DEBCF58E}"/>
+    <cellStyle name="Hyperlink" xfId="1244" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink 2" xfId="621" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
     <cellStyle name="Hyperlink 3" xfId="622" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
     <cellStyle name="Hyperlink 3 2" xfId="623" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
@@ -4360,7 +4585,7 @@
     <cellStyle name="InputCells12_BBorder_CRFReport-template" xfId="671" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
     <cellStyle name="Komma 2" xfId="672" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
     <cellStyle name="Komma 3" xfId="673" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
-    <cellStyle name="Komma 3 2" xfId="1245" xr:uid="{5C49D7A2-0DF1-4850-B894-B1C4B41547F1}"/>
+    <cellStyle name="Komma 3 2" xfId="1246" xr:uid="{5C49D7A2-0DF1-4850-B894-B1C4B41547F1}"/>
     <cellStyle name="Komma 4" xfId="674" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
     <cellStyle name="Komórka połączona" xfId="675" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
     <cellStyle name="Komórka połączona 10" xfId="676" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
@@ -4477,10 +4702,11 @@
     <cellStyle name="Neutralne 9 3" xfId="787" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
     <cellStyle name="Neutralne_D_HEAT" xfId="788" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
     <cellStyle name="no dec" xfId="789" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal - Style1" xfId="790" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
-    <cellStyle name="Normal - Style1 2" xfId="1246" xr:uid="{304C81AE-6CFC-4CDB-92B8-8D0CB4F6FB63}"/>
+    <cellStyle name="Normal - Style1 2" xfId="1247" xr:uid="{304C81AE-6CFC-4CDB-92B8-8D0CB4F6FB63}"/>
     <cellStyle name="Normal 10" xfId="791" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
-    <cellStyle name="Normal 10 15 2" xfId="1259" xr:uid="{3C4687C8-A385-4E38-BAD2-324540CB61F6}"/>
+    <cellStyle name="Normal 10 15 2" xfId="1260" xr:uid="{3C4687C8-A385-4E38-BAD2-324540CB61F6}"/>
     <cellStyle name="Normal 14" xfId="792" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
     <cellStyle name="Normal 2" xfId="793" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
     <cellStyle name="Normal 20" xfId="794" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
@@ -4489,463 +4715,463 @@
     <cellStyle name="Normal 3 2" xfId="797" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
     <cellStyle name="Normal 3 3" xfId="798" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
     <cellStyle name="Normal 3 4" xfId="799" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
-    <cellStyle name="Normal 39 2 2" xfId="1258" xr:uid="{940DEB15-709C-4C4B-9840-BCFB844DD24E}"/>
+    <cellStyle name="Normal 39 2 2" xfId="1259" xr:uid="{940DEB15-709C-4C4B-9840-BCFB844DD24E}"/>
     <cellStyle name="Normal 4" xfId="800" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
     <cellStyle name="Normal 4 2" xfId="801" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
-    <cellStyle name="Normal 5" xfId="1242" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 5" xfId="1243" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
     <cellStyle name="Normal 5 2" xfId="802" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
-    <cellStyle name="Normal 5 3" xfId="1257" xr:uid="{F83E6223-4AC9-44BE-B3F6-AC0219EE4518}"/>
+    <cellStyle name="Normal 5 3" xfId="1258" xr:uid="{F83E6223-4AC9-44BE-B3F6-AC0219EE4518}"/>
     <cellStyle name="Normal 6 2" xfId="803" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
     <cellStyle name="Normal 7 2" xfId="804" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
     <cellStyle name="Normal GHG Textfiels Bold" xfId="805" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
     <cellStyle name="Normal GHG-Shade" xfId="806" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
     <cellStyle name="Normal GHG-Shade 2" xfId="807" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 10" xfId="808" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
-    <cellStyle name="Normalny 10 2" xfId="809" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
-    <cellStyle name="Normalny 10 2 2" xfId="810" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
-    <cellStyle name="Normalny 10 2 3" xfId="811" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
-    <cellStyle name="Normalny 10 2 4" xfId="812" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
-    <cellStyle name="Normalny 10 3" xfId="813" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
-    <cellStyle name="Normalny 10 3 2" xfId="814" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
-    <cellStyle name="Normalny 10 3 3" xfId="815" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
-    <cellStyle name="Normalny 10 4" xfId="816" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
-    <cellStyle name="Normalny 11" xfId="817" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
-    <cellStyle name="Normalny 11 2" xfId="818" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
-    <cellStyle name="Normalny 11 2 2" xfId="819" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
-    <cellStyle name="Normalny 11 2 3" xfId="820" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
-    <cellStyle name="Normalny 11 3" xfId="821" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
-    <cellStyle name="Normalny 11 3 2" xfId="822" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
-    <cellStyle name="Normalny 11 3 2 2" xfId="823" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
-    <cellStyle name="Normalny 11 3 2 3" xfId="824" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
-    <cellStyle name="Normalny 11 3 3" xfId="825" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
-    <cellStyle name="Normalny 11 4" xfId="826" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
-    <cellStyle name="Normalny 11 4 2" xfId="827" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
-    <cellStyle name="Normalny 11 4 3" xfId="828" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
-    <cellStyle name="Normalny 11 5" xfId="829" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
-    <cellStyle name="Normalny 11 5 2" xfId="830" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
-    <cellStyle name="Normalny 11 5 3" xfId="831" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
-    <cellStyle name="Normalny 11 6" xfId="832" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
-    <cellStyle name="Normalny 11 6 2" xfId="1247" xr:uid="{D675BB15-57AF-440D-8EA4-9F816C591DC2}"/>
-    <cellStyle name="Normalny 11 7" xfId="833" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
-    <cellStyle name="Normalny 11 7 2" xfId="1248" xr:uid="{8BC1E3FF-0C9B-43E9-9500-4D6018E1ABB5}"/>
-    <cellStyle name="Normalny 12" xfId="834" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
-    <cellStyle name="Normalny 13" xfId="835" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
-    <cellStyle name="Normalny 13 10" xfId="836" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
-    <cellStyle name="Normalny 13 10 2" xfId="1249" xr:uid="{99919710-A3E8-4575-B926-5597FB461CF4}"/>
-    <cellStyle name="Normalny 13 2" xfId="837" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
-    <cellStyle name="Normalny 13 2 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
-    <cellStyle name="Normalny 13 2 2 2" xfId="839" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 2" xfId="840" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 2 2" xfId="841" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 3" xfId="842" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 3 2" xfId="843" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 4" xfId="844" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
-    <cellStyle name="Normalny 13 2 2 2 5" xfId="845" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
-    <cellStyle name="Normalny 13 2 2 3" xfId="846" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
-    <cellStyle name="Normalny 13 2 2 3 2" xfId="847" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
-    <cellStyle name="Normalny 13 2 2 4" xfId="848" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
-    <cellStyle name="Normalny 13 2 2 4 2" xfId="849" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
-    <cellStyle name="Normalny 13 2 2 5" xfId="850" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
-    <cellStyle name="Normalny 13 2 2 6" xfId="851" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
-    <cellStyle name="Normalny 13 2 3" xfId="852" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
-    <cellStyle name="Normalny 13 2 3 2" xfId="853" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
-    <cellStyle name="Normalny 13 2 3 2 2" xfId="854" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
-    <cellStyle name="Normalny 13 2 3 3" xfId="855" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
-    <cellStyle name="Normalny 13 2 3 3 2" xfId="856" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
-    <cellStyle name="Normalny 13 2 3 4" xfId="857" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
-    <cellStyle name="Normalny 13 2 3 5" xfId="858" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
-    <cellStyle name="Normalny 13 2 4" xfId="859" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
-    <cellStyle name="Normalny 13 2 4 2" xfId="860" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
-    <cellStyle name="Normalny 13 2 5" xfId="861" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
-    <cellStyle name="Normalny 13 2 5 2" xfId="862" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
-    <cellStyle name="Normalny 13 2 6" xfId="863" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
-    <cellStyle name="Normalny 13 2 7" xfId="864" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
-    <cellStyle name="Normalny 13 3" xfId="865" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
-    <cellStyle name="Normalny 13 3 2" xfId="866" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
-    <cellStyle name="Normalny 13 3 2 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
-    <cellStyle name="Normalny 13 3 2 2 2" xfId="868" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
-    <cellStyle name="Normalny 13 3 2 2 3" xfId="869" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
-    <cellStyle name="Normalny 13 3 2 3" xfId="870" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
-    <cellStyle name="Normalny 13 3 2 4" xfId="871" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
-    <cellStyle name="Normalny 13 3 3" xfId="872" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
-    <cellStyle name="Normalny 13 3 4" xfId="873" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
-    <cellStyle name="Normalny 13 3 5" xfId="874" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
-    <cellStyle name="Normalny 13 3 5 2" xfId="1250" xr:uid="{AD67F2F2-8B4B-421C-B5FF-39C3BC1E64FB}"/>
-    <cellStyle name="Normalny 13 3 6" xfId="875" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
-    <cellStyle name="Normalny 13 3 6 2" xfId="1251" xr:uid="{116D1A85-89EB-455B-9ACC-884516A64A7D}"/>
-    <cellStyle name="Normalny 13 4" xfId="876" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
-    <cellStyle name="Normalny 13 4 2" xfId="877" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
-    <cellStyle name="Normalny 13 4 3" xfId="878" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
-    <cellStyle name="Normalny 13 5" xfId="879" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
-    <cellStyle name="Normalny 13 5 2" xfId="880" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
-    <cellStyle name="Normalny 13 5 3" xfId="881" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
-    <cellStyle name="Normalny 13 6" xfId="882" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
-    <cellStyle name="Normalny 13 6 2" xfId="883" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
-    <cellStyle name="Normalny 13 6 2 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
-    <cellStyle name="Normalny 13 6 3" xfId="885" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
-    <cellStyle name="Normalny 13 6 3 2" xfId="886" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
-    <cellStyle name="Normalny 13 6 4" xfId="887" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
-    <cellStyle name="Normalny 13 6 5" xfId="888" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
-    <cellStyle name="Normalny 13 7" xfId="889" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
-    <cellStyle name="Normalny 13 7 2" xfId="890" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
-    <cellStyle name="Normalny 13 8" xfId="891" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
-    <cellStyle name="Normalny 13 8 2" xfId="892" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
-    <cellStyle name="Normalny 13 9" xfId="893" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
-    <cellStyle name="Normalny 14" xfId="894" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
-    <cellStyle name="Normalny 14 2" xfId="895" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
-    <cellStyle name="Normalny 14 2 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
-    <cellStyle name="Normalny 14 2 2 2" xfId="897" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
-    <cellStyle name="Normalny 14 2 2 3" xfId="898" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
-    <cellStyle name="Normalny 14 2 3" xfId="899" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
-    <cellStyle name="Normalny 14 2 4" xfId="900" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
-    <cellStyle name="Normalny 14 3" xfId="901" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
-    <cellStyle name="Normalny 14 4" xfId="902" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
-    <cellStyle name="Normalny 14 5" xfId="903" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
-    <cellStyle name="Normalny 14 5 2" xfId="1252" xr:uid="{13C2152B-AD0A-422A-996A-29BA3B34F55E}"/>
-    <cellStyle name="Normalny 15" xfId="904" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
-    <cellStyle name="Normalny 15 2" xfId="905" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
-    <cellStyle name="Normalny 16" xfId="906" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
-    <cellStyle name="Normalny 16 2" xfId="907" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
-    <cellStyle name="Normalny 16 3" xfId="908" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
-    <cellStyle name="Normalny 17" xfId="909" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
-    <cellStyle name="Normalny 18" xfId="910" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
-    <cellStyle name="Normalny 18 2" xfId="1253" xr:uid="{883F95FD-BFE6-48CC-99B4-D6F6FBEC8C45}"/>
-    <cellStyle name="Normalny 19" xfId="911" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
-    <cellStyle name="Normalny 2" xfId="912" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
-    <cellStyle name="Normalny 2 2" xfId="913" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
-    <cellStyle name="Normalny 2 3" xfId="914" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
-    <cellStyle name="Normalny 20" xfId="915" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
-    <cellStyle name="Normalny 21" xfId="1256" xr:uid="{36BE54FA-EA1B-4222-A752-4980B8CEB427}"/>
-    <cellStyle name="Normalny 3" xfId="916" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
-    <cellStyle name="Normalny 4" xfId="917" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
-    <cellStyle name="Normalny 5" xfId="918" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
-    <cellStyle name="Normalny 6" xfId="919" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
-    <cellStyle name="Normalny 7" xfId="920" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
-    <cellStyle name="Normalny 8" xfId="921" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
-    <cellStyle name="Normalny 9" xfId="922" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
-    <cellStyle name="Note 2" xfId="923" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
-    <cellStyle name="Note 3" xfId="924" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
-    <cellStyle name="Notiz 2" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
-    <cellStyle name="Obliczenia 10" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
-    <cellStyle name="Obliczenia 10 2" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
-    <cellStyle name="Obliczenia 10 3" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
-    <cellStyle name="Obliczenia 11" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
-    <cellStyle name="Obliczenia 12" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
-    <cellStyle name="Obliczenia 2" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
-    <cellStyle name="Obliczenia 3" xfId="932" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
-    <cellStyle name="Obliczenia 4" xfId="933" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
-    <cellStyle name="Obliczenia 5" xfId="934" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
-    <cellStyle name="Obliczenia 6" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
-    <cellStyle name="Obliczenia 7" xfId="936" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
-    <cellStyle name="Obliczenia 8" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
-    <cellStyle name="Obliczenia 9" xfId="938" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
-    <cellStyle name="Obliczenia 9 2" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
-    <cellStyle name="Obliczenia 9 3" xfId="940" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
-    <cellStyle name="Output 2" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
-    <cellStyle name="Output 3" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
-    <cellStyle name="Percent [2]" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
-    <cellStyle name="Procentowy 2" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
-    <cellStyle name="Procentowy 2 2" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
-    <cellStyle name="Procentowy 2 2 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
-    <cellStyle name="Procentowy 2 2 3" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
-    <cellStyle name="Procentowy 2 3" xfId="948" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
-    <cellStyle name="Procentowy 2 3 2" xfId="949" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
-    <cellStyle name="Procentowy 2 3 2 2" xfId="950" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
-    <cellStyle name="Procentowy 2 3 2 3" xfId="951" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
-    <cellStyle name="Procentowy 2 3 3" xfId="952" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
-    <cellStyle name="Procentowy 2 4" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
-    <cellStyle name="Procentowy 2 4 2" xfId="954" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
-    <cellStyle name="Procentowy 2 4 3" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
-    <cellStyle name="Procentowy 2 5" xfId="956" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
-    <cellStyle name="Procentowy 2 6" xfId="957" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
-    <cellStyle name="Procentowy 2 6 2" xfId="1254" xr:uid="{A39FF5A7-1E4F-4674-904E-F107DC1F72EC}"/>
-    <cellStyle name="Procentowy 2 7" xfId="958" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
-    <cellStyle name="Procentowy 2 7 2" xfId="1255" xr:uid="{6429F91B-09FC-450B-9B01-1634D9076224}"/>
-    <cellStyle name="Procentowy 3" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
-    <cellStyle name="Procentowy 4" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
-    <cellStyle name="Procentowy 5" xfId="1261" xr:uid="{8DAD81CA-76FC-4600-89D1-34FF7B7FCF02}"/>
-    <cellStyle name="Prozent 2" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
-    <cellStyle name="Prozent 2 2" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
-    <cellStyle name="Prozent 3" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
-    <cellStyle name="Prozent 4" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
-    <cellStyle name="Prozent 5" xfId="965" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
-    <cellStyle name="Prozent 5 2" xfId="966" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
-    <cellStyle name="Prozent 5 2 2" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
-    <cellStyle name="Prozent 5 2 3" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
-    <cellStyle name="Prozent 5 3" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
-    <cellStyle name="Prozent 5 3 2" xfId="970" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
-    <cellStyle name="Prozent 5 3 3" xfId="971" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
-    <cellStyle name="Prozent 5 3 4" xfId="972" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
-    <cellStyle name="Prozent 5 4" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
-    <cellStyle name="Prozent 6" xfId="974" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
-    <cellStyle name="Prozent 6 2" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
-    <cellStyle name="Prozent 6 2 2" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
-    <cellStyle name="Prozent 6 2 3" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
-    <cellStyle name="Prozent 6 3" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
-    <cellStyle name="Prozent 6 3 2" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
-    <cellStyle name="Prozent 6 3 3" xfId="980" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
-    <cellStyle name="Prozent 6 3 4" xfId="981" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
-    <cellStyle name="Prozent 6 4" xfId="982" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
-    <cellStyle name="Prozent 7" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
-    <cellStyle name="Prozent 8" xfId="984" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
-    <cellStyle name="Prozent 8 2" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
-    <cellStyle name="Prozent 8 2 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
-    <cellStyle name="Prozent 8 3" xfId="987" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
-    <cellStyle name="RangeName" xfId="988" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
-    <cellStyle name="SAPBEXaggData" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
-    <cellStyle name="SAPBEXaggDataEmph" xfId="990" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
-    <cellStyle name="SAPBEXaggItem" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
-    <cellStyle name="SAPBEXaggItemX" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
-    <cellStyle name="SAPBEXchaText" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
-    <cellStyle name="SAPBEXexcBad7" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
-    <cellStyle name="SAPBEXexcBad8" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
-    <cellStyle name="SAPBEXexcBad9" xfId="996" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
-    <cellStyle name="SAPBEXexcCritical4" xfId="997" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
-    <cellStyle name="SAPBEXexcCritical5" xfId="998" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
-    <cellStyle name="SAPBEXexcCritical6" xfId="999" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
-    <cellStyle name="SAPBEXexcGood1" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
-    <cellStyle name="SAPBEXexcGood2" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
-    <cellStyle name="SAPBEXexcGood3" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
-    <cellStyle name="SAPBEXfilterDrill" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
-    <cellStyle name="SAPBEXfilterItem" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
-    <cellStyle name="SAPBEXfilterText" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
-    <cellStyle name="SAPBEXformats" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
-    <cellStyle name="SAPBEXheaderItem" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
-    <cellStyle name="SAPBEXheaderText" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
-    <cellStyle name="SAPBEXHLevel0" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
-    <cellStyle name="SAPBEXHLevel0X" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
-    <cellStyle name="SAPBEXHLevel1" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
-    <cellStyle name="SAPBEXHLevel1X" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
-    <cellStyle name="SAPBEXHLevel2" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
-    <cellStyle name="SAPBEXHLevel2X" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
-    <cellStyle name="SAPBEXHLevel3" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
-    <cellStyle name="SAPBEXHLevel3X" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
-    <cellStyle name="SAPBEXresData" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
-    <cellStyle name="SAPBEXresDataEmph" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
-    <cellStyle name="SAPBEXresItem" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
-    <cellStyle name="SAPBEXresItemX" xfId="1020" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
-    <cellStyle name="SAPBEXstdData" xfId="1021" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
-    <cellStyle name="SAPBEXstdDataEmph" xfId="1022" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
-    <cellStyle name="SAPBEXstdItem" xfId="1023" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
-    <cellStyle name="SAPBEXstdItemX" xfId="1024" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
-    <cellStyle name="SAPBEXtitle" xfId="1025" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
-    <cellStyle name="SAPBEXundefined" xfId="1026" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
-    <cellStyle name="Schlecht 2" xfId="1027" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
-    <cellStyle name="Shade" xfId="1028" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
-    <cellStyle name="Standaard_Blad1" xfId="1029" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
-    <cellStyle name="Standard 10" xfId="1030" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
-    <cellStyle name="Standard 11" xfId="1031" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
-    <cellStyle name="Standard 11 2" xfId="1032" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
-    <cellStyle name="Standard 11 3" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
-    <cellStyle name="Standard 11 4" xfId="1034" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
-    <cellStyle name="Standard 11 5" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
-    <cellStyle name="Standard 12" xfId="1036" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
-    <cellStyle name="Standard 12 2" xfId="1037" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
-    <cellStyle name="Standard 12 2 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
-    <cellStyle name="Standard 12 2 2 2" xfId="1039" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
-    <cellStyle name="Standard 12 3" xfId="1040" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
-    <cellStyle name="Standard 12 4" xfId="1041" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
-    <cellStyle name="Standard 13" xfId="1042" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
-    <cellStyle name="Standard 2" xfId="1043" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
-    <cellStyle name="Standard 2 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
-    <cellStyle name="Standard 2 3" xfId="1045" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
-    <cellStyle name="Standard 2 3 2" xfId="1046" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
-    <cellStyle name="Standard 2 3 3" xfId="1047" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
-    <cellStyle name="Standard 2 4" xfId="1048" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
-    <cellStyle name="Standard 2 4 2" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
-    <cellStyle name="Standard 2 4 3" xfId="1050" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
-    <cellStyle name="Standard 2 5" xfId="1051" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
-    <cellStyle name="Standard 3" xfId="1052" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
-    <cellStyle name="Standard 3 2" xfId="1053" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
-    <cellStyle name="Standard 3_PL" xfId="1054" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
-    <cellStyle name="Standard 4" xfId="1055" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
-    <cellStyle name="Standard 4 2" xfId="1056" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
-    <cellStyle name="Standard 4_PL" xfId="1057" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
-    <cellStyle name="Standard 5" xfId="1058" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
-    <cellStyle name="Standard 5 2" xfId="1059" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
-    <cellStyle name="Standard 5 2 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
-    <cellStyle name="Standard 5 2 2 2" xfId="1061" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
-    <cellStyle name="Standard 5 2 2 3" xfId="1062" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
-    <cellStyle name="Standard 5 2 3" xfId="1063" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
-    <cellStyle name="Standard 5 2 3 2" xfId="1064" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
-    <cellStyle name="Standard 5 2 3 3" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
-    <cellStyle name="Standard 5 2 4" xfId="1066" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
-    <cellStyle name="Standard 5 2 5" xfId="1067" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
-    <cellStyle name="Standard 5 2_ELC_Processes" xfId="1068" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
-    <cellStyle name="Standard 5 3" xfId="1069" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
-    <cellStyle name="Standard 5 3 2" xfId="1070" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
-    <cellStyle name="Standard 5 3 3" xfId="1071" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
-    <cellStyle name="Standard 5 4" xfId="1072" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
-    <cellStyle name="Standard 5 4 2" xfId="1073" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
-    <cellStyle name="Standard 5 4 3" xfId="1074" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
-    <cellStyle name="Standard 5 5" xfId="1075" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
-    <cellStyle name="Standard 5 5 2" xfId="1076" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
-    <cellStyle name="Standard 5 5 3" xfId="1077" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
-    <cellStyle name="Standard 5 6" xfId="1078" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
-    <cellStyle name="Standard 5 7" xfId="1079" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
-    <cellStyle name="Standard 5_ELC_Processes" xfId="1080" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
-    <cellStyle name="Standard 6" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
-    <cellStyle name="Standard 6 2" xfId="1082" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
-    <cellStyle name="Standard 7" xfId="1083" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
-    <cellStyle name="Standard 8" xfId="1084" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
-    <cellStyle name="Standard 8 2" xfId="1085" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
-    <cellStyle name="Standard 8 3" xfId="1086" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
-    <cellStyle name="Standard 9" xfId="1087" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
-    <cellStyle name="Standard 9 2" xfId="1088" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
-    <cellStyle name="Standard 9 3" xfId="1089" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
-    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="1090" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
-    <cellStyle name="Style 21" xfId="1091" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
-    <cellStyle name="Style 22" xfId="1092" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
-    <cellStyle name="Style 23" xfId="1093" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
-    <cellStyle name="Style 24" xfId="1094" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
-    <cellStyle name="Style 25" xfId="1095" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
-    <cellStyle name="Style 26" xfId="1096" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
-    <cellStyle name="Style 27" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
-    <cellStyle name="Style 28" xfId="1098" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
-    <cellStyle name="Style 29" xfId="1099" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
-    <cellStyle name="Style 30" xfId="1100" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
-    <cellStyle name="Style 31" xfId="1101" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
-    <cellStyle name="Style 32" xfId="1102" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
-    <cellStyle name="Style 33" xfId="1103" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
-    <cellStyle name="Style 34" xfId="1104" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
-    <cellStyle name="Style 35" xfId="1105" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
-    <cellStyle name="Suma" xfId="1106" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
-    <cellStyle name="Suma 10" xfId="1107" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
-    <cellStyle name="Suma 10 2" xfId="1108" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
-    <cellStyle name="Suma 10 3" xfId="1109" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
-    <cellStyle name="Suma 11" xfId="1110" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
-    <cellStyle name="Suma 12" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
-    <cellStyle name="Suma 2" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
-    <cellStyle name="Suma 3" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
-    <cellStyle name="Suma 4" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
-    <cellStyle name="Suma 5" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
-    <cellStyle name="Suma 6" xfId="1116" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
-    <cellStyle name="Suma 7" xfId="1117" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
-    <cellStyle name="Suma 8" xfId="1118" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
-    <cellStyle name="Suma 9" xfId="1119" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
-    <cellStyle name="Suma 9 2" xfId="1120" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
-    <cellStyle name="Suma 9 3" xfId="1121" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
-    <cellStyle name="Suma_D_HEAT" xfId="1122" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
-    <cellStyle name="Tekst objaśnienia 10" xfId="1123" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
-    <cellStyle name="Tekst objaśnienia 10 2" xfId="1124" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
-    <cellStyle name="Tekst objaśnienia 10 3" xfId="1125" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
-    <cellStyle name="Tekst objaśnienia 11" xfId="1126" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
-    <cellStyle name="Tekst objaśnienia 12" xfId="1127" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
-    <cellStyle name="Tekst objaśnienia 2" xfId="1128" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
-    <cellStyle name="Tekst objaśnienia 3" xfId="1129" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
-    <cellStyle name="Tekst objaśnienia 4" xfId="1130" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
-    <cellStyle name="Tekst objaśnienia 5" xfId="1131" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
-    <cellStyle name="Tekst objaśnienia 6" xfId="1132" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
-    <cellStyle name="Tekst objaśnienia 7" xfId="1133" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
-    <cellStyle name="Tekst objaśnienia 8" xfId="1134" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
-    <cellStyle name="Tekst objaśnienia 9" xfId="1135" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
-    <cellStyle name="Tekst objaśnienia 9 2" xfId="1136" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
-    <cellStyle name="Tekst objaśnienia 9 3" xfId="1137" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
-    <cellStyle name="Tekst ostrzeżenia" xfId="1138" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10" xfId="1139" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10 2" xfId="1140" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 10 3" xfId="1141" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 11" xfId="1142" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 12" xfId="1143" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 2" xfId="1144" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 3" xfId="1145" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 4" xfId="1146" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 5" xfId="1147" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 6" xfId="1148" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 7" xfId="1149" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 8" xfId="1150" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9" xfId="1151" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9 2" xfId="1152" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
-    <cellStyle name="Tekst ostrzeżenia 9 3" xfId="1153" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
-    <cellStyle name="Tekst ostrzeżenia_D_HEAT" xfId="1154" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
-    <cellStyle name="Title 2" xfId="1155" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
-    <cellStyle name="Title 3" xfId="1156" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
-    <cellStyle name="Total 10" xfId="1157" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
-    <cellStyle name="Total 11" xfId="1158" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
-    <cellStyle name="Total 12" xfId="1159" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
-    <cellStyle name="Total 13" xfId="1160" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
-    <cellStyle name="Total 14" xfId="1161" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
-    <cellStyle name="Total 15" xfId="1162" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
-    <cellStyle name="Total 16" xfId="1163" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
-    <cellStyle name="Total 17" xfId="1164" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
-    <cellStyle name="Total 18" xfId="1165" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
-    <cellStyle name="Total 19" xfId="1166" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
-    <cellStyle name="Total 2" xfId="1167" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
-    <cellStyle name="Total 2 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
-    <cellStyle name="Total 20" xfId="1169" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
-    <cellStyle name="Total 3" xfId="1170" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
-    <cellStyle name="Total 4" xfId="1171" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
-    <cellStyle name="Total 5" xfId="1172" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
-    <cellStyle name="Total 6" xfId="1173" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
-    <cellStyle name="Total 7" xfId="1174" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
-    <cellStyle name="Total 8" xfId="1175" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
-    <cellStyle name="Total 9" xfId="1176" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
-    <cellStyle name="Tytuł 2" xfId="1177" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
-    <cellStyle name="Tytuł 2 2" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
-    <cellStyle name="Tytuł 2 3" xfId="1179" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
-    <cellStyle name="Tytuł 3" xfId="1180" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
-    <cellStyle name="Tytuł 3 2" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
-    <cellStyle name="Tytuł 3 3" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
-    <cellStyle name="Tytuł 4" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
-    <cellStyle name="Tytuł 5" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
-    <cellStyle name="Überschrift 1 2" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
-    <cellStyle name="Überschrift 2 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
-    <cellStyle name="Überschrift 3 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
-    <cellStyle name="Überschrift 4 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
-    <cellStyle name="Überschrift 5" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
-    <cellStyle name="Unprot" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
-    <cellStyle name="Unprot$" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
-    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
-    <cellStyle name="Unprotect" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
-    <cellStyle name="Uwaga 10" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
-    <cellStyle name="Uwaga 10 2" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
-    <cellStyle name="Uwaga 10 3" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
-    <cellStyle name="Uwaga 10 3 2" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
-    <cellStyle name="Uwaga 10 3 3" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
-    <cellStyle name="Uwaga 11" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
-    <cellStyle name="Uwaga 11 2" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
-    <cellStyle name="Uwaga 11 3" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
-    <cellStyle name="Uwaga 12" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
-    <cellStyle name="Uwaga 2" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
-    <cellStyle name="Uwaga 3" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
-    <cellStyle name="Uwaga 4" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
-    <cellStyle name="Uwaga 5" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
-    <cellStyle name="Uwaga 6" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
-    <cellStyle name="Uwaga 7" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
-    <cellStyle name="Uwaga 8" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
-    <cellStyle name="Uwaga 9" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
-    <cellStyle name="Uwaga 9 2" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
-    <cellStyle name="Uwaga 9 3" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
-    <cellStyle name="Uwaga 9 3 2" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
-    <cellStyle name="Uwaga 9 3 3" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
-    <cellStyle name="Verknüpfte Zelle 2" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
-    <cellStyle name="Währung 2" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
-    <cellStyle name="Währung 2 2" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
-    <cellStyle name="Warnender Text 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
-    <cellStyle name="Warning Text 2" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
-    <cellStyle name="Warning Text 3" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
-    <cellStyle name="X10_Figs 21 dec" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
-    <cellStyle name="Zelle überprüfen 2" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
-    <cellStyle name="Złe" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
-    <cellStyle name="Złe 10" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
-    <cellStyle name="Złe 10 2" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
-    <cellStyle name="Złe 10 3" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
-    <cellStyle name="Złe 11" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
-    <cellStyle name="Złe 12" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
-    <cellStyle name="Złe 2" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
-    <cellStyle name="Złe 3" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
-    <cellStyle name="Złe 4" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
-    <cellStyle name="Złe 5" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
-    <cellStyle name="Złe 6" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
-    <cellStyle name="Złe 7" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
-    <cellStyle name="Złe 8" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
-    <cellStyle name="Złe 9" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
-    <cellStyle name="Złe 9 2" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
-    <cellStyle name="Złe 9 3" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
-    <cellStyle name="Złe_D_HEAT" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
-    <cellStyle name="Обычный_2++_CRFReport-template" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
-    <cellStyle name="已访问的超链接" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
+    <cellStyle name="Normale_B2020" xfId="808" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normalny 10" xfId="809" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normalny 10 2" xfId="810" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normalny 10 2 2" xfId="811" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normalny 10 2 3" xfId="812" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normalny 10 2 4" xfId="813" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normalny 10 3" xfId="814" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normalny 10 3 2" xfId="815" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normalny 10 3 3" xfId="816" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normalny 10 4" xfId="817" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normalny 11" xfId="818" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normalny 11 2" xfId="819" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normalny 11 2 2" xfId="820" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normalny 11 2 3" xfId="821" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normalny 11 3" xfId="822" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normalny 11 3 2" xfId="823" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normalny 11 3 2 2" xfId="824" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normalny 11 3 2 3" xfId="825" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normalny 11 3 3" xfId="826" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normalny 11 4" xfId="827" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normalny 11 4 2" xfId="828" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normalny 11 4 3" xfId="829" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normalny 11 5" xfId="830" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normalny 11 5 2" xfId="831" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normalny 11 5 3" xfId="832" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normalny 11 6" xfId="833" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normalny 11 6 2" xfId="1248" xr:uid="{D675BB15-57AF-440D-8EA4-9F816C591DC2}"/>
+    <cellStyle name="Normalny 11 7" xfId="834" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normalny 11 7 2" xfId="1249" xr:uid="{8BC1E3FF-0C9B-43E9-9500-4D6018E1ABB5}"/>
+    <cellStyle name="Normalny 12" xfId="835" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normalny 13" xfId="836" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normalny 13 10" xfId="837" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normalny 13 10 2" xfId="1250" xr:uid="{99919710-A3E8-4575-B926-5597FB461CF4}"/>
+    <cellStyle name="Normalny 13 2" xfId="838" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normalny 13 2 2" xfId="839" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normalny 13 2 2 2" xfId="840" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 2" xfId="841" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 2 2" xfId="842" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 3" xfId="843" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 3 2" xfId="844" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 4" xfId="845" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normalny 13 2 2 2 5" xfId="846" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normalny 13 2 2 3" xfId="847" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normalny 13 2 2 3 2" xfId="848" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normalny 13 2 2 4" xfId="849" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normalny 13 2 2 4 2" xfId="850" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normalny 13 2 2 5" xfId="851" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normalny 13 2 2 6" xfId="852" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normalny 13 2 3" xfId="853" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normalny 13 2 3 2" xfId="854" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normalny 13 2 3 2 2" xfId="855" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normalny 13 2 3 3" xfId="856" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normalny 13 2 3 3 2" xfId="857" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normalny 13 2 3 4" xfId="858" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normalny 13 2 3 5" xfId="859" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normalny 13 2 4" xfId="860" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normalny 13 2 4 2" xfId="861" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normalny 13 2 5" xfId="862" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normalny 13 2 5 2" xfId="863" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normalny 13 2 6" xfId="864" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normalny 13 2 7" xfId="865" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normalny 13 3" xfId="866" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normalny 13 3 2" xfId="867" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normalny 13 3 2 2" xfId="868" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normalny 13 3 2 2 2" xfId="869" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normalny 13 3 2 2 3" xfId="870" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normalny 13 3 2 3" xfId="871" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normalny 13 3 2 4" xfId="872" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normalny 13 3 3" xfId="873" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normalny 13 3 4" xfId="874" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normalny 13 3 5" xfId="875" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normalny 13 3 5 2" xfId="1251" xr:uid="{AD67F2F2-8B4B-421C-B5FF-39C3BC1E64FB}"/>
+    <cellStyle name="Normalny 13 3 6" xfId="876" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normalny 13 3 6 2" xfId="1252" xr:uid="{116D1A85-89EB-455B-9ACC-884516A64A7D}"/>
+    <cellStyle name="Normalny 13 4" xfId="877" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normalny 13 4 2" xfId="878" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normalny 13 4 3" xfId="879" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normalny 13 5" xfId="880" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normalny 13 5 2" xfId="881" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normalny 13 5 3" xfId="882" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normalny 13 6" xfId="883" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normalny 13 6 2" xfId="884" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normalny 13 6 2 2" xfId="885" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normalny 13 6 3" xfId="886" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normalny 13 6 3 2" xfId="887" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normalny 13 6 4" xfId="888" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normalny 13 6 5" xfId="889" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normalny 13 7" xfId="890" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normalny 13 7 2" xfId="891" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normalny 13 8" xfId="892" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normalny 13 8 2" xfId="893" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normalny 13 9" xfId="894" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normalny 14" xfId="895" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normalny 14 2" xfId="896" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normalny 14 2 2" xfId="897" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normalny 14 2 2 2" xfId="898" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normalny 14 2 2 3" xfId="899" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normalny 14 2 3" xfId="900" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normalny 14 2 4" xfId="901" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normalny 14 3" xfId="902" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normalny 14 4" xfId="903" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normalny 14 5" xfId="904" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normalny 14 5 2" xfId="1253" xr:uid="{13C2152B-AD0A-422A-996A-29BA3B34F55E}"/>
+    <cellStyle name="Normalny 15" xfId="905" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normalny 15 2" xfId="906" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normalny 16" xfId="907" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normalny 16 2" xfId="908" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normalny 16 3" xfId="909" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normalny 17" xfId="910" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normalny 18" xfId="911" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normalny 18 2" xfId="1254" xr:uid="{883F95FD-BFE6-48CC-99B4-D6F6FBEC8C45}"/>
+    <cellStyle name="Normalny 19" xfId="912" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normalny 2" xfId="913" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normalny 2 2" xfId="914" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normalny 2 3" xfId="915" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normalny 20" xfId="916" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normalny 21" xfId="1257" xr:uid="{36BE54FA-EA1B-4222-A752-4980B8CEB427}"/>
+    <cellStyle name="Normalny 3" xfId="917" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normalny 4" xfId="918" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normalny 5" xfId="919" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normalny 6" xfId="920" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normalny 7" xfId="921" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normalny 8" xfId="922" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normalny 9" xfId="923" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Note 2" xfId="924" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Note 3" xfId="925" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Notiz 2" xfId="926" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Obliczenia 10" xfId="927" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Obliczenia 10 2" xfId="928" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Obliczenia 10 3" xfId="929" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Obliczenia 11" xfId="930" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Obliczenia 12" xfId="931" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Obliczenia 2" xfId="932" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Obliczenia 3" xfId="933" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Obliczenia 4" xfId="934" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Obliczenia 5" xfId="935" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Obliczenia 6" xfId="936" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Obliczenia 7" xfId="937" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Obliczenia 8" xfId="938" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Obliczenia 9" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Obliczenia 9 2" xfId="940" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Obliczenia 9 3" xfId="941" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Output 2" xfId="942" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Output 3" xfId="943" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Percent [2]" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Procentowy 2" xfId="945" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Procentowy 2 2" xfId="946" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Procentowy 2 2 2" xfId="947" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Procentowy 2 2 3" xfId="948" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Procentowy 2 3" xfId="949" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Procentowy 2 3 2" xfId="950" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Procentowy 2 3 2 2" xfId="951" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Procentowy 2 3 2 3" xfId="952" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Procentowy 2 3 3" xfId="953" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Procentowy 2 4" xfId="954" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Procentowy 2 4 2" xfId="955" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Procentowy 2 4 3" xfId="956" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Procentowy 2 5" xfId="957" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Procentowy 2 6" xfId="958" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Procentowy 2 6 2" xfId="1255" xr:uid="{A39FF5A7-1E4F-4674-904E-F107DC1F72EC}"/>
+    <cellStyle name="Procentowy 2 7" xfId="959" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Procentowy 2 7 2" xfId="1256" xr:uid="{6429F91B-09FC-450B-9B01-1634D9076224}"/>
+    <cellStyle name="Procentowy 3" xfId="960" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Procentowy 4" xfId="961" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Procentowy 5" xfId="1262" xr:uid="{8DAD81CA-76FC-4600-89D1-34FF7B7FCF02}"/>
+    <cellStyle name="Prozent 2" xfId="962" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Prozent 2 2" xfId="963" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Prozent 3" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Prozent 4" xfId="965" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Prozent 5" xfId="966" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Prozent 5 2" xfId="967" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Prozent 5 2 2" xfId="968" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Prozent 5 2 3" xfId="969" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Prozent 5 3" xfId="970" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Prozent 5 3 2" xfId="971" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Prozent 5 3 3" xfId="972" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Prozent 5 3 4" xfId="973" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Prozent 5 4" xfId="974" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Prozent 6" xfId="975" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Prozent 6 2" xfId="976" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Prozent 6 2 2" xfId="977" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Prozent 6 2 3" xfId="978" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Prozent 6 3" xfId="979" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Prozent 6 3 2" xfId="980" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Prozent 6 3 3" xfId="981" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Prozent 6 3 4" xfId="982" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Prozent 6 4" xfId="983" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Prozent 7" xfId="984" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Prozent 8" xfId="985" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Prozent 8 2" xfId="986" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Prozent 8 2 2" xfId="987" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Prozent 8 3" xfId="988" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="RangeName" xfId="989" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="SAPBEXaggData" xfId="990" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="SAPBEXaggDataEmph" xfId="991" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="SAPBEXaggItem" xfId="992" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="SAPBEXaggItemX" xfId="993" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="SAPBEXchaText" xfId="994" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="SAPBEXexcBad7" xfId="995" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="SAPBEXexcBad8" xfId="996" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="SAPBEXexcBad9" xfId="997" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="SAPBEXexcCritical4" xfId="998" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="SAPBEXexcCritical5" xfId="999" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="SAPBEXexcCritical6" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="SAPBEXexcGood1" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="SAPBEXexcGood2" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="SAPBEXexcGood3" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="SAPBEXfilterDrill" xfId="1004" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="SAPBEXfilterItem" xfId="1005" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="SAPBEXfilterText" xfId="1006" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="SAPBEXformats" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="SAPBEXheaderItem" xfId="1008" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="SAPBEXheaderText" xfId="1009" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="SAPBEXHLevel0" xfId="1010" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="SAPBEXHLevel0X" xfId="1011" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="SAPBEXHLevel1" xfId="1012" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="SAPBEXHLevel1X" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="SAPBEXHLevel2" xfId="1014" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="SAPBEXHLevel2X" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="SAPBEXHLevel3" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="SAPBEXHLevel3X" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="SAPBEXresData" xfId="1018" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="SAPBEXresDataEmph" xfId="1019" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="SAPBEXresItem" xfId="1020" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="SAPBEXresItemX" xfId="1021" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="SAPBEXstdData" xfId="1022" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="SAPBEXstdDataEmph" xfId="1023" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="SAPBEXstdItem" xfId="1024" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="SAPBEXstdItemX" xfId="1025" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="SAPBEXtitle" xfId="1026" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="SAPBEXundefined" xfId="1027" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Schlecht 2" xfId="1028" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Shade" xfId="1029" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Standaard_Blad1" xfId="1030" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Standard 10" xfId="1031" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Standard 11" xfId="1032" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Standard 11 2" xfId="1033" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Standard 11 3" xfId="1034" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Standard 11 4" xfId="1035" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Standard 11 5" xfId="1036" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Standard 12" xfId="1037" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Standard 12 2" xfId="1038" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Standard 12 2 2" xfId="1039" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Standard 12 2 2 2" xfId="1040" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Standard 12 3" xfId="1041" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Standard 12 4" xfId="1042" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Standard 13" xfId="1043" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Standard 2" xfId="1044" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Standard 2 2" xfId="1045" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Standard 2 3" xfId="1046" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Standard 2 3 2" xfId="1047" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Standard 2 3 3" xfId="1048" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Standard 2 4" xfId="1049" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Standard 2 4 2" xfId="1050" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Standard 2 4 3" xfId="1051" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Standard 2 5" xfId="1052" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Standard 3" xfId="1053" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Standard 3 2" xfId="1054" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Standard 3_PL" xfId="1055" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Standard 4" xfId="1056" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Standard 4 2" xfId="1057" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Standard 4_PL" xfId="1058" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Standard 5" xfId="1059" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Standard 5 2" xfId="1060" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Standard 5 2 2" xfId="1061" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Standard 5 2 2 2" xfId="1062" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Standard 5 2 2 3" xfId="1063" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Standard 5 2 3" xfId="1064" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Standard 5 2 3 2" xfId="1065" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Standard 5 2 3 3" xfId="1066" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Standard 5 2 4" xfId="1067" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Standard 5 2 5" xfId="1068" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Standard 5 2_ELC_Processes" xfId="1069" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Standard 5 3" xfId="1070" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Standard 5 3 2" xfId="1071" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Standard 5 3 3" xfId="1072" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Standard 5 4" xfId="1073" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Standard 5 4 2" xfId="1074" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Standard 5 4 3" xfId="1075" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Standard 5 5" xfId="1076" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Standard 5 5 2" xfId="1077" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Standard 5 5 3" xfId="1078" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Standard 5 6" xfId="1079" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Standard 5 7" xfId="1080" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Standard 5_ELC_Processes" xfId="1081" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Standard 6" xfId="1082" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Standard 6 2" xfId="1083" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Standard 7" xfId="1084" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Standard 8" xfId="1085" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Standard 8 2" xfId="1086" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Standard 8 3" xfId="1087" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Standard 9" xfId="1088" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Standard 9 2" xfId="1089" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Standard 9 3" xfId="1090" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Standard_Results_Pan_EU_OLGA_NUC" xfId="1091" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Style 21" xfId="1092" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Style 22" xfId="1093" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Style 23" xfId="1094" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Style 24" xfId="1095" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Style 25" xfId="1096" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Style 26" xfId="1097" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Style 27" xfId="1098" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Style 28" xfId="1099" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Style 29" xfId="1100" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Style 30" xfId="1101" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Style 31" xfId="1102" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Style 32" xfId="1103" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Style 33" xfId="1104" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Style 34" xfId="1105" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Style 35" xfId="1106" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Suma" xfId="1107" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Suma 10" xfId="1108" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Suma 10 2" xfId="1109" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Suma 10 3" xfId="1110" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Suma 11" xfId="1111" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Suma 12" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Suma 2" xfId="1113" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Suma 3" xfId="1114" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Suma 4" xfId="1115" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Suma 5" xfId="1116" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Suma 6" xfId="1117" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Suma 7" xfId="1118" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Suma 8" xfId="1119" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Suma 9" xfId="1120" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Suma 9 2" xfId="1121" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Suma 9 3" xfId="1122" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Suma_D_HEAT" xfId="1123" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Tekst objaśnienia 10" xfId="1124" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Tekst objaśnienia 10 2" xfId="1125" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Tekst objaśnienia 10 3" xfId="1126" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Tekst objaśnienia 11" xfId="1127" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Tekst objaśnienia 12" xfId="1128" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Tekst objaśnienia 2" xfId="1129" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Tekst objaśnienia 3" xfId="1130" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Tekst objaśnienia 4" xfId="1131" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Tekst objaśnienia 5" xfId="1132" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Tekst objaśnienia 6" xfId="1133" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Tekst objaśnienia 7" xfId="1134" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Tekst objaśnienia 8" xfId="1135" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Tekst objaśnienia 9" xfId="1136" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Tekst objaśnienia 9 2" xfId="1137" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Tekst objaśnienia 9 3" xfId="1138" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Tekst ostrzeżenia" xfId="1139" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10" xfId="1140" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10 2" xfId="1141" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 10 3" xfId="1142" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 11" xfId="1143" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 12" xfId="1144" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 2" xfId="1145" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 3" xfId="1146" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 4" xfId="1147" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 5" xfId="1148" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 6" xfId="1149" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 7" xfId="1150" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 8" xfId="1151" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9" xfId="1152" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9 2" xfId="1153" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Tekst ostrzeżenia 9 3" xfId="1154" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Tekst ostrzeżenia_D_HEAT" xfId="1155" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Title 2" xfId="1156" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Title 3" xfId="1157" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Total 10" xfId="1158" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Total 11" xfId="1159" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Total 12" xfId="1160" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Total 13" xfId="1161" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Total 14" xfId="1162" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Total 15" xfId="1163" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Total 16" xfId="1164" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Total 17" xfId="1165" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Total 18" xfId="1166" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="Total 19" xfId="1167" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="Total 2" xfId="1168" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="Total 2 2" xfId="1169" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="Total 20" xfId="1170" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="Total 3" xfId="1171" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="Total 4" xfId="1172" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="Total 5" xfId="1173" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="Total 6" xfId="1174" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="Total 7" xfId="1175" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="Total 8" xfId="1176" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="Total 9" xfId="1177" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="Tytuł 2" xfId="1178" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="Tytuł 2 2" xfId="1179" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="Tytuł 2 3" xfId="1180" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="Tytuł 3" xfId="1181" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="Tytuł 3 2" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="Tytuł 3 3" xfId="1183" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="Tytuł 4" xfId="1184" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="Tytuł 5" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="Überschrift 1 2" xfId="1186" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="Überschrift 2 2" xfId="1187" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="Überschrift 3 2" xfId="1188" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="Überschrift 4 2" xfId="1189" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="Überschrift 5" xfId="1190" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="Unprot" xfId="1191" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="Unprot$" xfId="1192" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="Unprot_2010-09-24_LTP 2010_assumptions" xfId="1193" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="Unprotect" xfId="1194" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="Uwaga 10" xfId="1195" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="Uwaga 10 2" xfId="1196" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="Uwaga 10 3" xfId="1197" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="Uwaga 10 3 2" xfId="1198" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="Uwaga 10 3 3" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="Uwaga 11" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="Uwaga 11 2" xfId="1201" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="Uwaga 11 3" xfId="1202" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="Uwaga 12" xfId="1203" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="Uwaga 2" xfId="1204" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="Uwaga 3" xfId="1205" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="Uwaga 4" xfId="1206" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="Uwaga 5" xfId="1207" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="Uwaga 6" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="Uwaga 7" xfId="1209" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="Uwaga 8" xfId="1210" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="Uwaga 9" xfId="1211" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="Uwaga 9 2" xfId="1212" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="Uwaga 9 3" xfId="1213" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="Uwaga 9 3 2" xfId="1214" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="Uwaga 9 3 3" xfId="1215" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="Verknüpfte Zelle 2" xfId="1216" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="Währung 2" xfId="1217" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="Währung 2 2" xfId="1218" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="Warnender Text 2" xfId="1219" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="Warning Text 2" xfId="1220" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="Warning Text 3" xfId="1221" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="X10_Figs 21 dec" xfId="1222" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="Zelle überprüfen 2" xfId="1223" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="Złe" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="Złe 10" xfId="1225" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="Złe 10 2" xfId="1226" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="Złe 10 3" xfId="1227" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="Złe 11" xfId="1228" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="Złe 12" xfId="1229" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="Złe 2" xfId="1230" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="Złe 3" xfId="1231" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="Złe 4" xfId="1232" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="Złe 5" xfId="1233" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="Złe 6" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="Złe 7" xfId="1235" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="Złe 8" xfId="1236" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="Złe 9" xfId="1237" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="Złe 9 2" xfId="1238" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
+    <cellStyle name="Złe 9 3" xfId="1239" xr:uid="{00000000-0005-0000-0000-0000DB040000}"/>
+    <cellStyle name="Złe_D_HEAT" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000DC040000}"/>
+    <cellStyle name="Обычный_2++_CRFReport-template" xfId="1241" xr:uid="{00000000-0005-0000-0000-0000DD040000}"/>
+    <cellStyle name="已访问的超链接" xfId="1242" xr:uid="{00000000-0005-0000-0000-0000DE040000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4963,7 +5189,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5064,7 +5290,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>DEMAND!$C$11:$I$11</c:f>
+              <c:f>DEMAND!$C$12:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5094,9 +5320,9 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>DEMAND!$C$12:$I$12</c:f>
+              <c:f>DEMAND!$C$13:$I$13</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>109.39</c:v>
@@ -5223,7 +5449,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5878,14 +6104,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19707</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19853</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>157801</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602413</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>112159</xdr:rowOff>
+      <xdr:colOff>530155</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>92452</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5908,7 +6134,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19707" y="2654008"/>
+          <a:off x="19707" y="3488267"/>
           <a:ext cx="6540758" cy="3764358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5922,13 +6148,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>262758</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>11167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>518948</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>113643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6443,31 +6669,31 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="164" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="17.399999999999999">
-      <c r="B2" s="23" t="s">
+    <row r="2" spans="2:10" ht="18">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -6484,7 +6710,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:10" ht="17.7" customHeight="1">
+    <row r="4" spans="2:10" ht="17.649999999999999" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -6497,128 +6723,141 @@
       <c r="I4" s="10"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="47.25" customHeight="1">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="32" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="B8" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
+      <c r="F8" s="28"/>
+      <c r="G8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="B9" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="1"/>
     </row>
-    <row r="22" ht="13.95" customHeight="1"/>
+    <row r="22" ht="13.9" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6632,28 +6871,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -6686,87 +6925,87 @@
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="39.6">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:10" ht="38.25">
+      <c r="B6" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="27" t="s">
+      <c r="I6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6778,23 +7017,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="17.399999999999999">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:7" ht="18">
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="9"/>
@@ -6813,73 +7052,98 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="31.95" customHeight="1">
-      <c r="B6" s="26" t="s">
+    <row r="6" spans="2:7" ht="31.9" customHeight="1">
+      <c r="B6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="13" t="str">
+      <c r="B7" s="27" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>ELC_FIN_DEM</v>
+      </c>
+      <c r="C7" s="27" t="str">
         <f>SEC_Processes!E7</f>
         <v>Electricity - Final Energy Demand</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="20">
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="34">
         <v>1</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="D8" s="38" t="s">
-        <v>65</v>
-      </c>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="30" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>ELC_GRID_RES</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="29" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="D16" s="18"/>
+      <c r="D16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6889,29 +7153,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:M26"/>
+  <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="83" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="5" width="8.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="C1" s="33"/>
+      <c r="C1" s="23"/>
     </row>
-    <row r="3" spans="2:13" ht="17.399999999999999">
-      <c r="B3" s="22" t="s">
+    <row r="3" spans="2:13" ht="18">
+      <c r="B3" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="9"/>
@@ -6923,165 +7188,189 @@
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="21">
         <v>2023</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="21">
         <v>2025</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="21">
         <v>2030</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="21">
         <v>2035</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="21">
         <v>2040</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="21">
         <v>2045</v>
       </c>
-      <c r="I6" s="31">
+      <c r="I6" s="21">
         <v>2050</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B8" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="39">
-        <f>C12*3.6</f>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="41">
+        <f>C13*3.6</f>
         <v>393.80400000000003</v>
       </c>
-      <c r="D8" s="39">
-        <f t="shared" ref="D8:I8" si="0">D12*3.6</f>
+      <c r="D8" s="41">
+        <f>D13*3.6</f>
         <v>442.11863013698968</v>
       </c>
-      <c r="E8" s="39">
-        <f t="shared" si="0"/>
+      <c r="E8" s="41">
+        <f>E13*3.6</f>
         <v>565.20000000000005</v>
       </c>
-      <c r="F8" s="39">
-        <f t="shared" si="0"/>
+      <c r="F8" s="41">
+        <f>F13*3.6</f>
         <v>698.03424657534129</v>
       </c>
-      <c r="G8" s="39">
-        <f t="shared" si="0"/>
+      <c r="G8" s="41">
+        <f>G13*3.6</f>
         <v>828</v>
       </c>
-      <c r="H8" s="39">
-        <f>H12*3.6</f>
+      <c r="H8" s="41">
+        <f>H13*3.6</f>
         <v>953.94986301369943</v>
       </c>
-      <c r="I8" s="39">
-        <f t="shared" si="0"/>
+      <c r="I8" s="41">
+        <f>I13*3.6</f>
         <v>1081.9076712328817</v>
       </c>
       <c r="L8" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="32" t="s">
+      <c r="M8" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
-      <c r="B9" s="17"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:13" ht="15.75" customHeight="1">
-      <c r="M10" s="1"/>
+      <c r="C10" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
-      <c r="C11" s="31">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="15.75" customHeight="1">
+      <c r="C12" s="21">
         <v>2023</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D12" s="21">
         <v>2025</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E12" s="21">
         <v>2030</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F12" s="21">
         <v>2035</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G12" s="21">
         <v>2040</v>
       </c>
-      <c r="H11" s="31">
+      <c r="H12" s="21">
         <v>2045</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I12" s="21">
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:13">
+      <c r="B13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C13" s="38">
         <v>109.39</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2025,{109.39;157;230}, {2023;2030;2040})</f>
         <v>122.81073059360824</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E13" s="38">
         <v>157</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2035,{109.39;157;230}, {2023;2030;2040})</f>
         <v>193.89840182648368</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G13" s="38">
         <v>230</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2045,{109.39;157;230}, {2023;2030;2040})</f>
         <v>264.98607305936093</v>
       </c>
-      <c r="I12" s="36">
+      <c r="I13" s="39">
         <f>_xlfn.FORECAST.LINEAR(2050,{109.39;157;230}, {2023;2030;2040})</f>
         <v>300.52990867580047</v>
       </c>
     </row>
-    <row r="14" spans="2:13">
-      <c r="C14" s="28"/>
+    <row r="15" spans="2:13">
+      <c r="C15" s="37" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="15" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="16" spans="2:13" ht="26.25" customHeight="1"/>
-    <row r="17" spans="3:12" ht="25.5" customHeight="1">
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+    <row r="16" spans="2:13" ht="13.5" customHeight="1">
+      <c r="C16" s="26"/>
+      <c r="D16" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="18" spans="3:12" ht="26.25" customHeight="1">
-      <c r="C18" s="1"/>
+    <row r="17" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="18" spans="3:12" ht="25.5" customHeight="1">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12" ht="26.25" customHeight="1"/>
-    <row r="20" spans="3:12" ht="25.5" customHeight="1"/>
-    <row r="26" spans="3:12" ht="16.5" customHeight="1"/>
+    <row r="19" spans="3:12" ht="26.25" customHeight="1">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:12" ht="26.25" customHeight="1"/>
+    <row r="21" spans="3:12" ht="25.5" customHeight="1"/>
+    <row r="27" spans="3:12" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:I7"/>
@@ -7097,21 +7386,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ada55d1baadc38a59b37f146ad1da21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6148ddbe210b331c9edc42bf7e0f90a" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7255,7 +7529,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -7271,28 +7578,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A551C1B6-05FC-4B61-8034-B37F3A0576E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{476A49FA-039E-4D8A-A3EF-E37AC40E343E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>